--- a/SF.Utils.Tests/files/attendance generation files/to process1/2020年控制阀4月考勤.xlsx
+++ b/SF.Utils.Tests/files/attendance generation files/to process1/2020年控制阀4月考勤.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D256032-3BAF-4CBC-BA1D-1FB509738636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97190B-75BB-4F0F-A478-9F5B0470F2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="1068" windowWidth="15480" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="4866" windowWidth="15480" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="116">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,371 +100,375 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中夜4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪秀琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯芳秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张篡篡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙孝丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宝红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱家芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张秋红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘道珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫迎秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹丽敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张桂侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何益琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱杨花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘小毅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄庆菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张娜娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王颍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜海琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈双双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴珍珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于秋红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高玲芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞春芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨润芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏长容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公休4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗炳江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓建平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许绪华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹玉侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙凤娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐雪雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓志纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭艳梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李洋洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏苏俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕翠霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱云鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公休2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中夜1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张友俊</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>王燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张友俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倪秀琼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯芳秀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张篡篡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙孝丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈宝红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱家芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张秋红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘道珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫迎秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尹丽敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张桂侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何益琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱杨花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘小毅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄庆菊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张娜娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王颍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜海琼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴珍珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>于秋红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高玲芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞春芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨润芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏长容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公休4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尚彩红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗炳江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓建平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离职</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许绪华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尹玉侠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙凤娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病假4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐雪雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓志纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭艳梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李洋洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魏苏俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕翠霞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公休2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中夜1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱云鹏</t>
+  </si>
+  <si>
+    <t>夜-3</t>
   </si>
 </sst>
 </file>
@@ -583,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,16 +721,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,6 +738,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1109,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1108,91 +1133,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
     </row>
     <row r="2" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
     </row>
     <row r="3" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1299,335 +1324,330 @@
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" spans="1:39" s="35" customFormat="1" ht="28" customHeight="1">
+    <row r="4" spans="1:39" s="46" customFormat="1" ht="28" customHeight="1">
       <c r="A4" s="29">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="45">
+        <v>4</v>
+      </c>
+      <c r="L4" s="45">
+        <v>4</v>
+      </c>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="31">
+        <v>4</v>
+      </c>
+      <c r="S4" s="31">
+        <v>4</v>
+      </c>
+      <c r="T4" s="31">
+        <v>8</v>
+      </c>
+      <c r="U4" s="31">
+        <v>8</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="31">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="31">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="31">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="31">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="31">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+    </row>
+    <row r="5" spans="1:39" s="43" customFormat="1" ht="28" customHeight="1">
+      <c r="A5" s="38">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32">
-        <v>4</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="31">
-        <v>1</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="32">
-        <v>4</v>
-      </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>1</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="32">
-        <v>8</v>
-      </c>
-      <c r="U4" s="31">
-        <v>8</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="W4" s="31">
-        <v>1</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="31">
-        <v>8</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC4" s="31">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="31">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="31">
+      <c r="C5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="40">
+        <v>4</v>
+      </c>
+      <c r="L5" s="40">
+        <v>4</v>
+      </c>
+      <c r="M5" s="40">
+        <v>8</v>
+      </c>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="40">
+        <v>4</v>
+      </c>
+      <c r="X5" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="40">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="40">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="40">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="44">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" s="40">
         <v>32</v>
       </c>
-      <c r="AH4" s="31">
-        <v>11</v>
-      </c>
-      <c r="AI4" s="31">
+      <c r="AH5" s="40">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="40">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="40">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+    </row>
+    <row r="6" spans="1:39" s="43" customFormat="1" ht="28" customHeight="1">
+      <c r="A6" s="38">
         <v>2</v>
       </c>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-    </row>
-    <row r="5" spans="1:39" ht="28" customHeight="1">
-      <c r="A5" s="20">
+      <c r="B6" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="40">
+        <v>4</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="U6" s="40">
+        <v>8</v>
+      </c>
+      <c r="V6" s="40">
+        <v>4</v>
+      </c>
+      <c r="W6" s="40">
+        <v>4</v>
+      </c>
+      <c r="X6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="21">
-        <v>8</v>
-      </c>
-      <c r="O5" s="12">
-        <v>4</v>
-      </c>
-      <c r="P5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>4</v>
-      </c>
-      <c r="R5" s="12">
-        <v>4</v>
-      </c>
-      <c r="S5" s="12">
-        <v>4</v>
-      </c>
-      <c r="T5" s="21">
-        <v>12</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>56</v>
-      </c>
-      <c r="AH5" s="12">
-        <v>68</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>16</v>
-      </c>
-      <c r="AJ5" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="12">
-        <v>4</v>
-      </c>
-      <c r="L6" s="12">
-        <v>4</v>
-      </c>
-      <c r="M6" s="21">
-        <v>8</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="12" t="s">
+      <c r="Y6" s="40">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="40">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG6" s="40">
         <v>24</v>
       </c>
-      <c r="S6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" s="12">
-        <v>4</v>
-      </c>
-      <c r="X6" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="22">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>32</v>
-      </c>
-      <c r="AH6" s="12">
-        <v>56</v>
-      </c>
-      <c r="AI6" s="12">
-        <v>6</v>
-      </c>
-      <c r="AJ6" s="12">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
+      <c r="AH6" s="40">
+        <v>52</v>
+      </c>
+      <c r="AI6" s="40">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="40">
+        <v>7</v>
+      </c>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
     </row>
     <row r="7" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A7" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -1639,10 +1659,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -1655,62 +1675,60 @@
       <c r="Q7" s="12">
         <v>4</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="12">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12">
+        <v>4</v>
+      </c>
+      <c r="T7" s="21">
+        <v>8</v>
+      </c>
+      <c r="U7" s="21">
+        <v>8</v>
+      </c>
+      <c r="V7" s="12">
+        <v>4</v>
+      </c>
+      <c r="W7" s="12">
+        <v>4</v>
+      </c>
+      <c r="X7" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="12">
         <v>28</v>
       </c>
-      <c r="S7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" s="21">
-        <v>8</v>
-      </c>
-      <c r="V7" s="12">
-        <v>4</v>
-      </c>
-      <c r="W7" s="12">
-        <v>4</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>8</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>24</v>
-      </c>
       <c r="AH7" s="12">
-        <v>52</v>
-      </c>
-      <c r="AI7" s="12">
-        <v>14</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AI7" s="12"/>
       <c r="AJ7" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="5"/>
@@ -1718,10 +1736,10 @@
     </row>
     <row r="8" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A8" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -1742,33 +1760,33 @@
         <v>19</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="P8" s="12">
+        <v>4</v>
       </c>
       <c r="Q8" s="12">
         <v>4</v>
       </c>
-      <c r="R8" s="12">
-        <v>4</v>
-      </c>
-      <c r="S8" s="12">
-        <v>4</v>
-      </c>
-      <c r="T8" s="21">
-        <v>8</v>
-      </c>
-      <c r="U8" s="21">
-        <v>8</v>
+      <c r="R8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="V8" s="12">
         <v>4</v>
@@ -1779,14 +1797,14 @@
       <c r="X8" s="12">
         <v>4</v>
       </c>
-      <c r="Y8" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>12</v>
+      <c r="Y8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="AB8" s="12">
         <v>4</v>
@@ -1794,24 +1812,26 @@
       <c r="AC8" s="12">
         <v>4</v>
       </c>
-      <c r="AD8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AD8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="12">
         <v>32</v>
       </c>
-      <c r="AG8" s="12">
-        <v>28</v>
-      </c>
       <c r="AH8" s="12">
-        <v>45</v>
-      </c>
-      <c r="AI8" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>10</v>
+      </c>
       <c r="AJ8" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK8" s="4"/>
       <c r="AL8" s="5"/>
@@ -1819,16 +1839,16 @@
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
@@ -1837,27 +1857,31 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="N9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="12">
-        <v>4</v>
+      <c r="O9" s="12">
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q9" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>28</v>
@@ -1865,56 +1889,56 @@
       <c r="S9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" s="12">
-        <v>4</v>
-      </c>
-      <c r="W9" s="12">
-        <v>4</v>
-      </c>
-      <c r="X9" s="12">
-        <v>4</v>
+      <c r="T9" s="21">
+        <v>12</v>
+      </c>
+      <c r="U9" s="21">
+        <v>8</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB9" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC9" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF9" s="12">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="AG9" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AH9" s="12">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI9" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ9" s="12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AK9" s="4"/>
       <c r="AL9" s="5"/>
@@ -1922,16 +1946,16 @@
     </row>
     <row r="10" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>19</v>
@@ -1940,96 +1964,86 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="12">
         <v>4</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="12">
-        <v>5</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="21">
+      <c r="Q10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="12">
+        <v>4</v>
+      </c>
+      <c r="S10" s="12">
+        <v>4</v>
+      </c>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21">
         <v>12</v>
       </c>
-      <c r="U10" s="21">
-        <v>8</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="21" t="s">
+      <c r="V10" s="12">
+        <v>4</v>
+      </c>
+      <c r="W10" s="12">
+        <v>4</v>
+      </c>
+      <c r="X10" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AB10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>28</v>
+      <c r="AE10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>4</v>
       </c>
       <c r="AG10" s="12">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="12">
         <v>48</v>
       </c>
-      <c r="AH10" s="12">
-        <v>58</v>
-      </c>
       <c r="AI10" s="12">
-        <v>20</v>
-      </c>
-      <c r="AJ10" s="12">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="12"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="11" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A11" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>37</v>
@@ -2047,89 +2061,97 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4</v>
+      </c>
+      <c r="M11" s="21">
+        <v>8</v>
+      </c>
+      <c r="N11" s="21">
+        <v>8</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="12">
-        <v>4</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="12">
-        <v>4</v>
-      </c>
-      <c r="S11" s="12">
-        <v>4</v>
-      </c>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21">
+      <c r="V11" s="12">
+        <v>4</v>
+      </c>
+      <c r="W11" s="12">
+        <v>4</v>
+      </c>
+      <c r="X11" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="21">
         <v>12</v>
       </c>
-      <c r="V11" s="12">
-        <v>4</v>
-      </c>
-      <c r="W11" s="12">
-        <v>4</v>
-      </c>
-      <c r="X11" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="21"/>
       <c r="AB11" s="12">
         <v>4</v>
       </c>
       <c r="AC11" s="12">
         <v>4</v>
       </c>
-      <c r="AD11" s="12" t="s">
+      <c r="AD11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>48</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>68</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>9</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
+      <c r="A12" s="20">
+        <v>8</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>38</v>
-      </c>
-      <c r="AE11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="12">
-        <v>12</v>
-      </c>
-      <c r="AH11" s="12">
-        <v>48</v>
-      </c>
-      <c r="AI11" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-    </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
-      <c r="A12" s="20">
-        <v>7</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
@@ -2144,46 +2166,42 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="12">
-        <v>4</v>
-      </c>
-      <c r="L12" s="12">
-        <v>4</v>
-      </c>
-      <c r="M12" s="21">
-        <v>8</v>
-      </c>
-      <c r="N12" s="21">
-        <v>8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>4</v>
+      </c>
+      <c r="R12" s="12">
+        <v>4</v>
+      </c>
+      <c r="S12" s="12">
+        <v>4</v>
+      </c>
+      <c r="T12" s="21">
+        <v>8</v>
+      </c>
+      <c r="U12" s="21">
+        <v>8</v>
+      </c>
+      <c r="V12" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="12">
-        <v>4</v>
       </c>
       <c r="W12" s="12">
         <v>4</v>
@@ -2216,25 +2234,25 @@
         <v>4</v>
       </c>
       <c r="AG12" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AH12" s="12">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AI12" s="12">
-        <v>9</v>
-      </c>
-      <c r="AJ12" s="12">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="25"/>
       <c r="AK12" s="4"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
     </row>
     <row r="13" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
       <c r="A13" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>19</v>
@@ -2255,10 +2273,10 @@
         <v>19</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
@@ -2268,8 +2286,8 @@
       <c r="P13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="12">
-        <v>4</v>
+      <c r="Q13" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R13" s="12">
         <v>4</v>
@@ -2284,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W13" s="12">
         <v>4</v>
@@ -2320,22 +2338,22 @@
         <v>28</v>
       </c>
       <c r="AH13" s="12">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AI13" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ13" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="12"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="1:39" s="3" customFormat="1" ht="28" customHeight="1">
+    <row r="14" spans="1:39" ht="28" customHeight="1">
       <c r="A14" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>19</v>
@@ -2369,8 +2387,8 @@
       <c r="P14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>19</v>
+      <c r="Q14" s="12">
+        <v>4</v>
       </c>
       <c r="R14" s="12">
         <v>4</v>
@@ -2384,8 +2402,8 @@
       <c r="U14" s="21">
         <v>8</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>30</v>
+      <c r="V14" s="12">
+        <v>4</v>
       </c>
       <c r="W14" s="12">
         <v>4</v>
@@ -2411,32 +2429,29 @@
       <c r="AD14" s="12">
         <v>4</v>
       </c>
-      <c r="AE14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="12">
-        <v>4</v>
+      <c r="AE14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="AG14" s="12">
         <v>28</v>
       </c>
       <c r="AH14" s="12">
-        <v>48</v>
-      </c>
-      <c r="AI14" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:39" ht="28" customHeight="1">
       <c r="A15" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>19</v>
@@ -2451,16 +2466,16 @@
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -2470,8 +2485,8 @@
       <c r="P15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="12">
-        <v>4</v>
+      <c r="Q15" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R15" s="12">
         <v>4</v>
@@ -2512,29 +2527,29 @@
       <c r="AD15" s="12">
         <v>4</v>
       </c>
-      <c r="AE15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>32</v>
+      <c r="AE15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>4</v>
       </c>
       <c r="AG15" s="12">
         <v>28</v>
       </c>
       <c r="AH15" s="12">
-        <v>45</v>
-      </c>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AI15" s="12">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="12"/>
     </row>
     <row r="16" spans="1:39" ht="28" customHeight="1">
       <c r="A16" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>19</v>
@@ -2549,16 +2564,16 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
@@ -2568,8 +2583,8 @@
       <c r="P16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>19</v>
+      <c r="Q16" s="12">
+        <v>4</v>
       </c>
       <c r="R16" s="12">
         <v>4</v>
@@ -2610,8 +2625,8 @@
       <c r="AD16" s="12">
         <v>4</v>
       </c>
-      <c r="AE16" s="12" t="s">
-        <v>19</v>
+      <c r="AE16" s="12">
+        <v>4</v>
       </c>
       <c r="AF16" s="12">
         <v>4</v>
@@ -2620,19 +2635,17 @@
         <v>28</v>
       </c>
       <c r="AH16" s="12">
-        <v>44</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
     </row>
     <row r="17" spans="1:39" ht="28" customHeight="1">
       <c r="A17" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>19</v>
@@ -2666,8 +2679,8 @@
       <c r="P17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="12">
-        <v>4</v>
+      <c r="Q17" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="R17" s="12">
         <v>4</v>
@@ -2687,8 +2700,8 @@
       <c r="W17" s="12">
         <v>4</v>
       </c>
-      <c r="X17" s="12">
-        <v>4</v>
+      <c r="X17" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="Y17" s="12">
         <v>4</v>
@@ -2708,27 +2721,29 @@
       <c r="AD17" s="12">
         <v>4</v>
       </c>
-      <c r="AE17" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF17" s="12">
+      <c r="AE17" s="22">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="22">
         <v>4</v>
       </c>
       <c r="AG17" s="12">
         <v>28</v>
       </c>
       <c r="AH17" s="12">
-        <v>52</v>
-      </c>
-      <c r="AI17" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="AI17" s="12">
+        <v>1</v>
+      </c>
       <c r="AJ17" s="12"/>
     </row>
     <row r="18" spans="1:39" ht="28" customHeight="1">
       <c r="A18" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>19</v>
@@ -2743,27 +2758,27 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
       <c r="O18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R18" s="12">
         <v>4</v>
@@ -2778,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="V18" s="12">
-        <v>4</v>
-      </c>
-      <c r="W18" s="12">
-        <v>4</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>30</v>
+        <v>-4</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X18" s="12">
+        <v>4</v>
       </c>
       <c r="Y18" s="12">
         <v>4</v>
       </c>
-      <c r="Z18" s="12">
-        <v>4</v>
+      <c r="Z18" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA18" s="21">
         <v>12</v>
@@ -2802,31 +2817,31 @@
         <v>4</v>
       </c>
       <c r="AD18" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE18" s="22">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AF18" s="22">
         <v>4</v>
       </c>
       <c r="AG18" s="12">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH18" s="12">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AI18" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ18" s="12"/>
     </row>
     <row r="19" spans="1:39" ht="28" customHeight="1">
       <c r="A19" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>19</v>
@@ -2841,27 +2856,29 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="M19" s="21">
+        <v>8</v>
+      </c>
       <c r="N19" s="21"/>
       <c r="O19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R19" s="12">
         <v>4</v>
@@ -2876,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="V19" s="12">
-        <v>-4</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="W19" s="12">
+        <v>4</v>
       </c>
       <c r="X19" s="12">
         <v>4</v>
@@ -2887,8 +2904,8 @@
       <c r="Y19" s="12">
         <v>4</v>
       </c>
-      <c r="Z19" s="12" t="s">
-        <v>19</v>
+      <c r="Z19" s="12">
+        <v>4</v>
       </c>
       <c r="AA19" s="21">
         <v>12</v>
@@ -2900,40 +2917,42 @@
         <v>4</v>
       </c>
       <c r="AD19" s="12">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF19" s="22">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="AE19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="AG19" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AH19" s="12">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AI19" s="12">
-        <v>8</v>
-      </c>
-      <c r="AJ19" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:39" ht="28" customHeight="1">
       <c r="A20" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -2945,35 +2964,37 @@
         <v>19</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="21">
-        <v>8</v>
-      </c>
-      <c r="N20" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="O20" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R20" s="12">
-        <v>4</v>
-      </c>
-      <c r="S20" s="12">
-        <v>4</v>
-      </c>
-      <c r="T20" s="21">
-        <v>8</v>
-      </c>
-      <c r="U20" s="21">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="V20" s="12">
         <v>4</v>
@@ -3002,40 +3023,40 @@
       <c r="AD20" s="12">
         <v>4</v>
       </c>
-      <c r="AE20" s="22" t="s">
+      <c r="AE20" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="12">
         <v>48</v>
       </c>
-      <c r="AF20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG20" s="12">
-        <v>36</v>
-      </c>
       <c r="AH20" s="12">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI20" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AJ20" s="12">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="28" customHeight="1">
       <c r="A21" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -3047,37 +3068,35 @@
         <v>19</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N21" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M21" s="21">
+        <v>8</v>
+      </c>
+      <c r="N21" s="21"/>
       <c r="O21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="P21" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>4</v>
+      </c>
+      <c r="R21" s="12">
+        <v>4</v>
+      </c>
+      <c r="S21" s="12">
+        <v>-2</v>
+      </c>
+      <c r="T21" s="21">
+        <v>12</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V21" s="12">
         <v>4</v>
@@ -3113,55 +3132,53 @@
         <v>4</v>
       </c>
       <c r="AG21" s="12">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AH21" s="12">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AI21" s="12">
-        <v>11</v>
-      </c>
-      <c r="AJ21" s="12">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="12"/>
     </row>
     <row r="22" spans="1:39" ht="28" customHeight="1">
       <c r="A22" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22" s="21">
         <v>8</v>
       </c>
       <c r="N22" s="21"/>
-      <c r="O22" s="12" t="s">
-        <v>27</v>
+      <c r="O22" s="12">
+        <v>5</v>
       </c>
       <c r="P22" s="12">
         <v>4</v>
@@ -3173,22 +3190,22 @@
         <v>4</v>
       </c>
       <c r="S22" s="12">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="T22" s="21">
-        <v>12</v>
-      </c>
-      <c r="U22" s="21" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="U22" s="21">
+        <v>8</v>
       </c>
       <c r="V22" s="12">
         <v>4</v>
       </c>
-      <c r="W22" s="12">
-        <v>4</v>
-      </c>
-      <c r="X22" s="12">
-        <v>4</v>
+      <c r="W22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="Y22" s="12">
         <v>4</v>
@@ -3211,311 +3228,309 @@
       <c r="AE22" s="12">
         <v>4</v>
       </c>
-      <c r="AF22" s="12">
-        <v>4</v>
+      <c r="AF22" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="AG22" s="12">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH22" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AI22" s="12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ22" s="12"/>
     </row>
-    <row r="23" spans="1:39" ht="28" customHeight="1">
-      <c r="A23" s="20">
+    <row r="23" spans="1:39" ht="19.5" customHeight="1">
+      <c r="A23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+    </row>
+    <row r="24" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14">
+        <v>4</v>
+      </c>
+      <c r="G24" s="14">
+        <v>5</v>
+      </c>
+      <c r="H24" s="14">
+        <v>6</v>
+      </c>
+      <c r="I24" s="15">
+        <v>7</v>
+      </c>
+      <c r="J24" s="15">
+        <v>8</v>
+      </c>
+      <c r="K24" s="15">
+        <v>9</v>
+      </c>
+      <c r="L24" s="15">
+        <v>10</v>
+      </c>
+      <c r="M24" s="14">
+        <v>11</v>
+      </c>
+      <c r="N24" s="14">
+        <v>12</v>
+      </c>
+      <c r="O24" s="15">
+        <v>13</v>
+      </c>
+      <c r="P24" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>15</v>
+      </c>
+      <c r="R24" s="15">
+        <v>16</v>
+      </c>
+      <c r="S24" s="15">
+        <v>17</v>
+      </c>
+      <c r="T24" s="14">
         <v>18</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="U24" s="14">
+        <v>19</v>
+      </c>
+      <c r="V24" s="15">
+        <v>20</v>
+      </c>
+      <c r="W24" s="15">
+        <v>21</v>
+      </c>
+      <c r="X24" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>23</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>24</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>26</v>
+      </c>
+      <c r="AC24" s="15">
         <v>27</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" s="21">
-        <v>8</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="12">
-        <v>5</v>
-      </c>
-      <c r="P23" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>4</v>
-      </c>
-      <c r="R23" s="12">
-        <v>4</v>
-      </c>
-      <c r="S23" s="12">
-        <v>4</v>
-      </c>
-      <c r="T23" s="21">
-        <v>8</v>
-      </c>
-      <c r="U23" s="21">
-        <v>8</v>
-      </c>
-      <c r="V23" s="12">
-        <v>4</v>
-      </c>
-      <c r="W23" s="12" t="s">
+      <c r="AD24" s="15">
+        <v>28</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>29</v>
+      </c>
+      <c r="AF24" s="15">
         <v>30</v>
       </c>
-      <c r="X23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y23" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="21">
+      <c r="AG24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+    </row>
+    <row r="25" spans="1:39" ht="28" customHeight="1">
+      <c r="A25" s="20">
+        <v>19</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>4</v>
+      </c>
+      <c r="R25" s="12">
+        <v>4</v>
+      </c>
+      <c r="S25" s="12">
+        <v>4</v>
+      </c>
+      <c r="T25" s="21">
+        <v>8</v>
+      </c>
+      <c r="U25" s="21">
+        <v>8</v>
+      </c>
+      <c r="V25" s="12">
+        <v>4</v>
+      </c>
+      <c r="W25" s="12">
+        <v>4</v>
+      </c>
+      <c r="X25" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="21">
         <v>12</v>
       </c>
-      <c r="AB23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG23" s="12">
-        <v>36</v>
-      </c>
-      <c r="AH23" s="12">
-        <v>61</v>
-      </c>
-      <c r="AI23" s="12">
-        <v>10</v>
-      </c>
-      <c r="AJ23" s="12"/>
-    </row>
-    <row r="24" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="38"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-    </row>
-    <row r="25" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>2</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="AB25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF25" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="12">
+        <v>28</v>
+      </c>
+      <c r="AH25" s="12">
+        <v>48</v>
+      </c>
+      <c r="AI25" s="12">
         <v>3</v>
       </c>
-      <c r="F25" s="14">
-        <v>4</v>
-      </c>
-      <c r="G25" s="14">
-        <v>5</v>
-      </c>
-      <c r="H25" s="14">
-        <v>6</v>
-      </c>
-      <c r="I25" s="15">
-        <v>7</v>
-      </c>
-      <c r="J25" s="15">
-        <v>8</v>
-      </c>
-      <c r="K25" s="15">
-        <v>9</v>
-      </c>
-      <c r="L25" s="15">
-        <v>10</v>
-      </c>
-      <c r="M25" s="14">
-        <v>11</v>
-      </c>
-      <c r="N25" s="14">
-        <v>12</v>
-      </c>
-      <c r="O25" s="15">
-        <v>13</v>
-      </c>
-      <c r="P25" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="15">
-        <v>15</v>
-      </c>
-      <c r="R25" s="15">
-        <v>16</v>
-      </c>
-      <c r="S25" s="15">
-        <v>17</v>
-      </c>
-      <c r="T25" s="14">
-        <v>18</v>
-      </c>
-      <c r="U25" s="14">
-        <v>19</v>
-      </c>
-      <c r="V25" s="15">
-        <v>20</v>
-      </c>
-      <c r="W25" s="15">
-        <v>21</v>
-      </c>
-      <c r="X25" s="15">
-        <v>22</v>
-      </c>
-      <c r="Y25" s="15">
-        <v>23</v>
-      </c>
-      <c r="Z25" s="15">
-        <v>24</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>25</v>
-      </c>
-      <c r="AB25" s="15">
-        <v>26</v>
-      </c>
-      <c r="AC25" s="15">
-        <v>27</v>
-      </c>
-      <c r="AD25" s="15">
-        <v>28</v>
-      </c>
-      <c r="AE25" s="15">
-        <v>29</v>
-      </c>
-      <c r="AF25" s="15">
-        <v>30</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
+      <c r="AJ25" s="12"/>
     </row>
     <row r="26" spans="1:39" ht="28" customHeight="1">
       <c r="A26" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="P26" s="12">
+        <v>4</v>
       </c>
       <c r="Q26" s="12">
         <v>4</v>
@@ -3533,22 +3548,22 @@
         <v>8</v>
       </c>
       <c r="V26" s="12">
-        <v>4</v>
-      </c>
-      <c r="W26" s="12">
-        <v>4</v>
+        <v>-4</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="X26" s="12">
         <v>4</v>
       </c>
-      <c r="Y26" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>12</v>
+      <c r="Y26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="AB26" s="12">
         <v>4</v>
@@ -3559,142 +3574,144 @@
       <c r="AD26" s="12">
         <v>4</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>19</v>
+      <c r="AE26" s="12">
+        <v>2</v>
       </c>
       <c r="AF26" s="12">
         <v>4</v>
       </c>
       <c r="AG26" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AH26" s="12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:39" ht="28" customHeight="1">
       <c r="A27" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="12">
+        <v>4</v>
+      </c>
+      <c r="P27" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>4</v>
+      </c>
+      <c r="R27" s="12">
+        <v>4</v>
+      </c>
+      <c r="S27" s="12">
+        <v>4</v>
+      </c>
+      <c r="T27" s="21">
+        <v>12</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG27" s="12">
         <v>32</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>4</v>
-      </c>
-      <c r="R27" s="12">
-        <v>4</v>
-      </c>
-      <c r="S27" s="12">
-        <v>4</v>
-      </c>
-      <c r="T27" s="21">
-        <v>8</v>
-      </c>
-      <c r="U27" s="21">
-        <v>8</v>
-      </c>
-      <c r="V27" s="12">
-        <v>-4</v>
-      </c>
-      <c r="W27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB27" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD27" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF27" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG27" s="12">
-        <v>20</v>
-      </c>
       <c r="AH27" s="12">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AI27" s="12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AJ27" s="12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="28" customHeight="1">
       <c r="A28" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="12" t="s">
         <v>19</v>
       </c>
@@ -3707,13 +3724,13 @@
       <c r="L28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="12">
-        <v>4</v>
-      </c>
-      <c r="P28" s="12">
-        <v>4</v>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q28" s="12">
         <v>4</v>
@@ -3725,63 +3742,59 @@
         <v>4</v>
       </c>
       <c r="T28" s="21">
+        <v>8</v>
+      </c>
+      <c r="U28" s="21">
+        <v>8</v>
+      </c>
+      <c r="V28" s="12">
+        <v>4</v>
+      </c>
+      <c r="W28" s="12">
+        <v>4</v>
+      </c>
+      <c r="X28" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA28" s="21">
         <v>12</v>
       </c>
-      <c r="U28" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA28" s="21" t="s">
+      <c r="AB28" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF28" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="12">
         <v>36</v>
       </c>
-      <c r="AB28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG28" s="12">
-        <v>32</v>
-      </c>
       <c r="AH28" s="12">
-        <v>60</v>
-      </c>
-      <c r="AI28" s="12">
-        <v>11</v>
-      </c>
-      <c r="AJ28" s="12">
-        <v>12</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
     </row>
     <row r="29" spans="1:39" ht="28" customHeight="1">
       <c r="A29" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>19</v>
@@ -3810,26 +3823,22 @@
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>4</v>
-      </c>
-      <c r="R29" s="12">
-        <v>4</v>
-      </c>
-      <c r="S29" s="12">
-        <v>4</v>
-      </c>
-      <c r="T29" s="21">
-        <v>8</v>
-      </c>
-      <c r="U29" s="21">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="12">
         <v>4</v>
       </c>
@@ -3842,8 +3851,8 @@
       <c r="Y29" s="12">
         <v>4</v>
       </c>
-      <c r="Z29" s="12" t="s">
-        <v>19</v>
+      <c r="Z29" s="12">
+        <v>4</v>
       </c>
       <c r="AA29" s="21">
         <v>12</v>
@@ -3860,223 +3869,231 @@
       <c r="AE29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AF29" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG29" s="12">
-        <v>36</v>
-      </c>
+      <c r="AF29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG29" s="12"/>
       <c r="AH29" s="12">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AI29" s="12"/>
       <c r="AJ29" s="12"/>
     </row>
     <row r="30" spans="1:39" ht="28" customHeight="1">
       <c r="A30" s="20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
       <c r="O30" s="12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="P30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="12">
-        <v>4</v>
-      </c>
-      <c r="W30" s="12">
-        <v>4</v>
-      </c>
-      <c r="X30" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="12">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA30" s="21">
         <v>12</v>
       </c>
-      <c r="AB30" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC30" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD30" s="12">
-        <v>4</v>
+      <c r="AB30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD30" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="AE30" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AF30" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG30" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="AG30" s="12">
+        <v>27</v>
+      </c>
       <c r="AH30" s="12">
-        <v>4</v>
-      </c>
-      <c r="AI30" s="12"/>
-      <c r="AJ30" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="AI30" s="12">
+        <v>23</v>
+      </c>
+      <c r="AJ30" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:39" ht="28" customHeight="1">
       <c r="A31" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
       <c r="O31" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U31" s="21" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="R31" s="12">
+        <v>4</v>
+      </c>
+      <c r="S31" s="12">
+        <v>4</v>
+      </c>
+      <c r="T31" s="21">
+        <v>8</v>
+      </c>
+      <c r="U31" s="21">
+        <v>8</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z31" s="12" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="W31" s="12">
+        <v>4</v>
+      </c>
+      <c r="X31" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>4</v>
       </c>
       <c r="AA31" s="21">
         <v>12</v>
       </c>
-      <c r="AB31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD31" s="12" t="s">
-        <v>27</v>
+      <c r="AB31" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD31" s="12">
+        <v>4</v>
       </c>
       <c r="AE31" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG31" s="12">
         <v>28</v>
       </c>
-      <c r="AF31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG31" s="12">
-        <v>27</v>
-      </c>
       <c r="AH31" s="12">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AI31" s="12">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AJ31" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="28" customHeight="1">
       <c r="A32" s="20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -4088,21 +4105,21 @@
         <v>19</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>19</v>
+      <c r="O32" s="12">
+        <v>4</v>
+      </c>
+      <c r="P32" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>4</v>
       </c>
       <c r="R32" s="12">
         <v>4</v>
@@ -4111,13 +4128,13 @@
         <v>4</v>
       </c>
       <c r="T32" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U32" s="21">
         <v>8</v>
       </c>
-      <c r="V32" s="12" t="s">
-        <v>19</v>
+      <c r="V32" s="12">
+        <v>4</v>
       </c>
       <c r="W32" s="12">
         <v>4</v>
@@ -4144,57 +4161,63 @@
         <v>4</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF32" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AH32" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI32" s="12">
+        <v>5</v>
+      </c>
+      <c r="AJ32" s="12">
         <v>2</v>
-      </c>
-      <c r="AJ32" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="28" customHeight="1">
       <c r="A33" s="20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="I33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="21">
+        <v>8</v>
+      </c>
       <c r="O33" s="12">
         <v>4</v>
       </c>
@@ -4213,53 +4236,53 @@
       <c r="T33" s="21">
         <v>12</v>
       </c>
-      <c r="U33" s="21">
-        <v>8</v>
-      </c>
-      <c r="V33" s="12">
-        <v>4</v>
-      </c>
-      <c r="W33" s="12">
-        <v>4</v>
-      </c>
-      <c r="X33" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD33" s="12">
-        <v>4</v>
+      <c r="U33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA33" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF33" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG33" s="12">
+        <v>56</v>
+      </c>
+      <c r="AH33" s="12">
+        <v>68</v>
+      </c>
+      <c r="AI33" s="12">
         <v>16</v>
       </c>
-      <c r="AH33" s="12">
-        <v>60</v>
-      </c>
-      <c r="AI33" s="12">
-        <v>5</v>
-      </c>
       <c r="AJ33" s="12">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="28" customHeight="1">
@@ -4267,81 +4290,81 @@
         <v>28</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
       <c r="V34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="23"/>
       <c r="AB34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AF34" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
@@ -4353,16 +4376,16 @@
         <v>29</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4371,25 +4394,25 @@
         <v>19</v>
       </c>
       <c r="J35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="N35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N35" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="O35" s="12">
         <v>4</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="24">
         <v>4</v>
@@ -4422,22 +4445,22 @@
         <v>4</v>
       </c>
       <c r="AA35" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB35" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC35" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD35" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE35" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF35" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG35" s="12">
         <v>44</v>
@@ -4457,16 +4480,16 @@
         <v>30</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4487,13 +4510,13 @@
         <v>8</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O36" s="12">
         <v>4</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q36" s="24">
         <v>4</v>
@@ -4562,7 +4585,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>19</v>
@@ -4577,16 +4600,16 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -4660,7 +4683,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>19</v>
@@ -4737,10 +4760,10 @@
         <v>5</v>
       </c>
       <c r="AE38" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF38" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AG38" s="12">
         <v>28</v>
@@ -4760,34 +4783,34 @@
         <v>33</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M39" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N39" s="21"/>
       <c r="O39" s="12" t="s">
@@ -4800,10 +4823,10 @@
         <v>4</v>
       </c>
       <c r="R39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T39" s="21">
         <v>12</v>
@@ -4812,37 +4835,37 @@
         <v>8</v>
       </c>
       <c r="V39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA39" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF39" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG39" s="12">
         <v>40</v>
@@ -4877,16 +4900,16 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M40" s="21">
         <v>8</v>
@@ -4902,10 +4925,10 @@
         <v>4</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S40" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T40" s="21">
         <v>12</v>
@@ -4914,35 +4937,35 @@
         <v>8</v>
       </c>
       <c r="V40" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W40" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X40" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA40" s="21"/>
       <c r="AB40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AD40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF40" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG40" s="12">
         <v>28</v>
@@ -4962,7 +4985,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>19</v>
@@ -4977,16 +5000,16 @@
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M41" s="21">
         <v>8</v>
@@ -4996,16 +5019,16 @@
         <v>19</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="12">
         <v>4</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T41" s="21">
         <v>12</v>
@@ -5014,37 +5037,37 @@
         <v>8</v>
       </c>
       <c r="V41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF41" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG41" s="12">
         <v>40</v>
@@ -5132,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="AB42" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC42" s="12">
         <v>4</v>
@@ -5141,10 +5164,10 @@
         <v>4</v>
       </c>
       <c r="AE42" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF42" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG42" s="12">
         <v>28</v>
@@ -5164,13 +5187,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -5179,16 +5202,16 @@
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
       <c r="I43" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
@@ -5216,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="V43" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W43" s="12" t="s">
         <v>19</v>
@@ -5262,52 +5285,52 @@
       </c>
     </row>
     <row r="44" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="38"/>
-      <c r="AD44" s="38"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="36"/>
+      <c r="Y44" s="36"/>
+      <c r="Z44" s="36"/>
+      <c r="AA44" s="36"/>
+      <c r="AB44" s="36"/>
+      <c r="AC44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
     </row>
     <row r="45" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="37"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="18">
         <v>1</v>
       </c>
@@ -5416,19 +5439,19 @@
     </row>
     <row r="46" spans="1:39" ht="28" customHeight="1">
       <c r="A46" s="20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>32</v>
+        <v>75</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -5436,25 +5459,25 @@
       <c r="I46" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="24">
-        <v>4</v>
-      </c>
-      <c r="L46" s="24">
-        <v>4</v>
-      </c>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>19</v>
+      <c r="J46" s="12">
+        <v>4</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="12">
+        <v>4</v>
+      </c>
+      <c r="P46" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>4</v>
       </c>
       <c r="R46" s="12">
         <v>4</v>
@@ -5465,23 +5488,21 @@
       <c r="T46" s="21">
         <v>8</v>
       </c>
-      <c r="U46" s="21">
-        <v>8</v>
-      </c>
-      <c r="V46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X46" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y46" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z46" s="12" t="s">
-        <v>27</v>
+      <c r="U46" s="21"/>
+      <c r="V46" s="12">
+        <v>4</v>
+      </c>
+      <c r="W46" s="12">
+        <v>4</v>
+      </c>
+      <c r="X46" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>4</v>
       </c>
       <c r="AA46" s="21">
         <v>12</v>
@@ -5496,45 +5517,45 @@
         <v>4</v>
       </c>
       <c r="AE46" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF46" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG46" s="12">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AH46" s="12">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="AI46" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ46" s="12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="28" customHeight="1">
+    <row r="47" spans="1:39" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A47" s="20">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="12" t="s">
-        <v>19</v>
+      <c r="I47" s="12">
+        <v>4</v>
       </c>
       <c r="J47" s="12">
         <v>4</v>
@@ -5547,95 +5568,64 @@
       </c>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
-      <c r="O47" s="12">
-        <v>4</v>
-      </c>
-      <c r="P47" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>4</v>
-      </c>
-      <c r="R47" s="12">
-        <v>4</v>
-      </c>
-      <c r="S47" s="12">
-        <v>4</v>
-      </c>
-      <c r="T47" s="21">
-        <v>8</v>
-      </c>
+      <c r="O47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="21"/>
       <c r="U47" s="21"/>
-      <c r="V47" s="12">
-        <v>4</v>
-      </c>
-      <c r="W47" s="12">
-        <v>4</v>
-      </c>
-      <c r="X47" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z47" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB47" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC47" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD47" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF47" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG47" s="12">
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12">
         <v>20</v>
       </c>
-      <c r="AH47" s="12">
-        <v>64</v>
-      </c>
       <c r="AI47" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ47" s="12">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
     </row>
-    <row r="48" spans="1:39" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="48" spans="1:39" ht="28" customHeight="1">
       <c r="A48" s="20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="12">
-        <v>4</v>
-      </c>
-      <c r="J48" s="12">
-        <v>4</v>
+      <c r="I48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="K48" s="12" t="s">
         <v>19</v>
@@ -5646,54 +5636,83 @@
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S48" s="12">
+        <v>4</v>
+      </c>
+      <c r="T48" s="21">
+        <v>8</v>
+      </c>
+      <c r="U48" s="21">
+        <v>8</v>
+      </c>
+      <c r="V48" s="12">
+        <v>4</v>
+      </c>
+      <c r="W48" s="12">
+        <v>4</v>
+      </c>
+      <c r="X48" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF48" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG48" s="12">
+        <v>28</v>
+      </c>
       <c r="AH48" s="12">
-        <v>20</v>
-      </c>
-      <c r="AI48" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ48" s="12">
-        <v>3</v>
-      </c>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="7"/>
-      <c r="AM48" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
     </row>
     <row r="49" spans="1:39" ht="28" customHeight="1">
       <c r="A49" s="20">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -5710,25 +5729,27 @@
       <c r="L49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="21"/>
+      <c r="M49" s="21">
+        <v>8</v>
+      </c>
       <c r="N49" s="21"/>
       <c r="O49" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>19</v>
+      <c r="P49" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>4</v>
+      </c>
+      <c r="R49" s="12">
+        <v>4</v>
       </c>
       <c r="S49" s="12">
         <v>4</v>
       </c>
       <c r="T49" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U49" s="21">
         <v>8</v>
@@ -5758,60 +5779,62 @@
         <v>4</v>
       </c>
       <c r="AD49" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE49" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF49" s="12">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="AF49" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="AG49" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AH49" s="12">
-        <v>40</v>
-      </c>
-      <c r="AI49" s="12"/>
-      <c r="AJ49" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="AI49" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:39" ht="28" customHeight="1">
       <c r="A50" s="20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="21">
-        <v>8</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M50" s="21"/>
       <c r="N50" s="21"/>
       <c r="O50" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P50" s="12">
         <v>4</v>
@@ -5826,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="T50" s="21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U50" s="21">
         <v>8</v>
@@ -5855,34 +5878,32 @@
       <c r="AC50" s="12">
         <v>4</v>
       </c>
-      <c r="AD50" s="12">
-        <v>5</v>
-      </c>
-      <c r="AE50" s="12" t="s">
+      <c r="AD50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE50" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF50" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG50" s="12">
         <v>28</v>
       </c>
-      <c r="AF50" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG50" s="12">
-        <v>40</v>
-      </c>
       <c r="AH50" s="12">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AI50" s="12">
         <v>2</v>
       </c>
-      <c r="AJ50" s="12">
-        <v>5</v>
-      </c>
+      <c r="AJ50" s="12"/>
     </row>
-    <row r="51" spans="1:39" ht="28" customHeight="1">
+    <row r="51" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A51" s="20">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>19</v>
@@ -5895,53 +5916,59 @@
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="H51" s="21">
+        <v>8</v>
+      </c>
       <c r="I51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="21">
+        <v>8</v>
+      </c>
+      <c r="N51" s="21">
+        <v>8</v>
+      </c>
+      <c r="O51" s="12">
+        <v>4</v>
+      </c>
+      <c r="P51" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>4</v>
+      </c>
+      <c r="R51" s="12">
+        <v>4</v>
+      </c>
+      <c r="S51" s="12">
+        <v>4</v>
+      </c>
+      <c r="T51" s="21">
+        <v>12</v>
+      </c>
+      <c r="U51" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>4</v>
-      </c>
-      <c r="R51" s="12">
-        <v>4</v>
-      </c>
-      <c r="S51" s="12">
-        <v>4</v>
-      </c>
-      <c r="T51" s="21">
-        <v>8</v>
-      </c>
-      <c r="U51" s="21">
-        <v>8</v>
-      </c>
       <c r="V51" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W51" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X51" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y51" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z51" s="12">
         <v>4</v>
@@ -5955,32 +5982,35 @@
       <c r="AC51" s="12">
         <v>4</v>
       </c>
-      <c r="AD51" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE51" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF51" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG51" s="12">
-        <v>28</v>
-      </c>
-      <c r="AH51" s="12">
-        <v>49</v>
+      <c r="AD51" s="24">
+        <v>4</v>
+      </c>
+      <c r="AE51" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF51" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG51" s="26">
+        <v>40</v>
+      </c>
+      <c r="AH51" s="26">
+        <v>56</v>
       </c>
       <c r="AI51" s="12">
+        <v>7</v>
+      </c>
+      <c r="AJ51" s="12">
         <v>2</v>
       </c>
-      <c r="AJ51" s="12"/>
+      <c r="AK51" s="4"/>
     </row>
-    <row r="52" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="52" spans="1:39" ht="28" customHeight="1">
       <c r="A52" s="20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>19</v>
@@ -5993,32 +6023,28 @@
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
-      <c r="H52" s="21">
-        <v>8</v>
-      </c>
+      <c r="H52" s="21"/>
       <c r="I52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="21">
-        <v>8</v>
-      </c>
-      <c r="N52" s="21">
-        <v>8</v>
-      </c>
-      <c r="O52" s="12">
-        <v>4</v>
-      </c>
-      <c r="P52" s="12">
-        <v>4</v>
+      <c r="N52" s="21"/>
+      <c r="O52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q52" s="12">
         <v>4</v>
@@ -6030,255 +6056,255 @@
         <v>4</v>
       </c>
       <c r="T52" s="21">
+        <v>8</v>
+      </c>
+      <c r="U52" s="21">
+        <v>8</v>
+      </c>
+      <c r="V52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA52" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG52" s="12">
+        <v>36</v>
+      </c>
+      <c r="AH52" s="12">
+        <v>52</v>
+      </c>
+      <c r="AI52" s="12">
         <v>12</v>
       </c>
-      <c r="U52" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V52" s="12">
-        <v>3</v>
-      </c>
-      <c r="W52" s="12">
-        <v>3</v>
-      </c>
-      <c r="X52" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="12">
-        <v>3</v>
-      </c>
-      <c r="Z52" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA52" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB52" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC52" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD52" s="24">
-        <v>4</v>
-      </c>
-      <c r="AE52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF52" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG52" s="26">
-        <v>40</v>
-      </c>
-      <c r="AH52" s="26">
-        <v>56</v>
-      </c>
-      <c r="AI52" s="12">
-        <v>7</v>
-      </c>
       <c r="AJ52" s="12">
-        <v>2</v>
-      </c>
-      <c r="AK52" s="4"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="53" spans="1:39" ht="28" customHeight="1">
+    <row r="53" spans="1:39" s="1" customFormat="1" ht="28" customHeight="1">
       <c r="A53" s="20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M53" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="I53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="21"/>
       <c r="N53" s="21"/>
-      <c r="O53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="12">
-        <v>4</v>
-      </c>
-      <c r="R53" s="12">
-        <v>4</v>
-      </c>
-      <c r="S53" s="12">
-        <v>4</v>
-      </c>
-      <c r="T53" s="21">
-        <v>8</v>
-      </c>
-      <c r="U53" s="21">
-        <v>8</v>
-      </c>
-      <c r="V53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA53" s="21" t="s">
+      <c r="O53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AB53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF53" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG53" s="12">
+      <c r="P53" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AH53" s="12">
-        <v>52</v>
-      </c>
-      <c r="AI53" s="12">
-        <v>12</v>
-      </c>
-      <c r="AJ53" s="12">
-        <v>11</v>
-      </c>
+      <c r="Q53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="X53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
     </row>
-    <row r="54" spans="1:39" s="1" customFormat="1" ht="28" customHeight="1">
+    <row r="54" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
       <c r="A54" s="20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="24">
+        <v>4</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
       <c r="I54" s="24" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="S54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="T54" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="U54" s="21"/>
-      <c r="V54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="W54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="X54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF54" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="7"/>
-      <c r="AM54" s="7"/>
+      <c r="V54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA54" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF54" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG54" s="12">
+        <v>32</v>
+      </c>
+      <c r="AH54" s="12">
+        <v>64</v>
+      </c>
+      <c r="AI54" s="12">
+        <v>21</v>
+      </c>
+      <c r="AJ54" s="12">
+        <v>18</v>
+      </c>
+      <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="1:39" s="5" customFormat="1" ht="28" customHeight="1">
+    <row r="55" spans="1:39" ht="28" customHeight="1">
       <c r="A55" s="20">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>19</v>
@@ -6286,105 +6312,100 @@
       <c r="D55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="24">
-        <v>4</v>
-      </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="L55" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="M55" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="N55" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="E55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T55" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="U55" s="21"/>
-      <c r="V55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="W55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA55" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE55" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="S55" s="12">
+        <v>4</v>
+      </c>
+      <c r="T55" s="21">
+        <v>8</v>
+      </c>
+      <c r="U55" s="21">
+        <v>8</v>
+      </c>
+      <c r="V55" s="12">
+        <v>4</v>
+      </c>
+      <c r="W55" s="12">
+        <v>4</v>
+      </c>
+      <c r="X55" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y55" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD55" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE55" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="AF55" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG55" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AH55" s="12">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AI55" s="12">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="AJ55" s="12">
-        <v>18</v>
-      </c>
-      <c r="AK55" s="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:39" ht="28" customHeight="1">
       <c r="A56" s="20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>19</v>
@@ -6395,40 +6416,40 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>19</v>
+      <c r="I56" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
-      <c r="O56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q56" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>19</v>
+      <c r="O56" s="12">
+        <v>4</v>
+      </c>
+      <c r="P56" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>4</v>
+      </c>
+      <c r="R56" s="12">
+        <v>4</v>
       </c>
       <c r="S56" s="12">
         <v>4</v>
       </c>
       <c r="T56" s="21">
-        <v>8</v>
-      </c>
-      <c r="U56" s="21">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="U56" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="V56" s="12">
         <v>4</v>
@@ -6445,7 +6466,9 @@
       <c r="Z56" s="12">
         <v>4</v>
       </c>
-      <c r="AA56" s="21"/>
+      <c r="AA56" s="21">
+        <v>12</v>
+      </c>
       <c r="AB56" s="12">
         <v>4</v>
       </c>
@@ -6455,78 +6478,80 @@
       <c r="AD56" s="12">
         <v>4</v>
       </c>
-      <c r="AE56" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF56" s="12" t="s">
-        <v>27</v>
+      <c r="AE56" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF56" s="12">
+        <v>4</v>
       </c>
       <c r="AG56" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AH56" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI56" s="12">
         <v>2</v>
       </c>
-      <c r="AJ56" s="12">
-        <v>1</v>
-      </c>
+      <c r="AJ56" s="12"/>
     </row>
     <row r="57" spans="1:39" ht="28" customHeight="1">
       <c r="A57" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
-      <c r="I57" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="12">
-        <v>4</v>
-      </c>
-      <c r="P57" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="12">
-        <v>4</v>
-      </c>
-      <c r="R57" s="12">
-        <v>4</v>
-      </c>
-      <c r="S57" s="12">
-        <v>4</v>
-      </c>
-      <c r="T57" s="21">
-        <v>12</v>
+      <c r="I57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="12">
+        <v>4</v>
+      </c>
+      <c r="M57" s="21">
+        <v>8</v>
+      </c>
+      <c r="N57" s="21">
+        <v>8</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="U57" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V57" s="12">
         <v>4</v>
@@ -6535,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="X57" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y57" s="12">
         <v>4</v>
@@ -6555,83 +6580,85 @@
       <c r="AD57" s="12">
         <v>4</v>
       </c>
-      <c r="AE57" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF57" s="12">
-        <v>4</v>
+      <c r="AE57" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF57" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="AG57" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AH57" s="12">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AI57" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ57" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="AJ57" s="12">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:39" ht="28" customHeight="1">
       <c r="A58" s="20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>19</v>
+      <c r="K58" s="12">
+        <v>4</v>
       </c>
       <c r="L58" s="12">
         <v>4</v>
       </c>
       <c r="M58" s="21">
-        <v>8</v>
-      </c>
-      <c r="N58" s="21">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="N58" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R58" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="T58" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="U58" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="V58" s="12">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="V58" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="W58" s="12">
         <v>4</v>
@@ -6651,427 +6678,423 @@
       <c r="AB58" s="12">
         <v>4</v>
       </c>
-      <c r="AC58" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD58" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF58" s="24" t="s">
-        <v>28</v>
+      <c r="AC58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF58" s="12">
+        <v>4</v>
       </c>
       <c r="AG58" s="12">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH58" s="12">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AI58" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ58" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="28" customHeight="1">
       <c r="A59" s="20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="12" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="12">
-        <v>4</v>
-      </c>
-      <c r="L59" s="12">
-        <v>4</v>
+      <c r="K59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="M59" s="21">
-        <v>12</v>
-      </c>
-      <c r="N59" s="21" t="s">
-        <v>50</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N59" s="21"/>
       <c r="O59" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P59" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q59" s="12" t="s">
-        <v>28</v>
+      <c r="Q59" s="12">
+        <v>4</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="S59" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T59" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="U59" s="21" t="s">
-        <v>29</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
       <c r="V59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="W59" s="12">
-        <v>4</v>
-      </c>
-      <c r="X59" s="12">
-        <v>3</v>
-      </c>
-      <c r="Y59" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z59" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB59" s="12">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="W59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="AC59" s="12" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="AD59" s="12" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="AE59" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF59" s="12">
-        <v>4</v>
-      </c>
-      <c r="AG59" s="12">
-        <v>40</v>
-      </c>
-      <c r="AH59" s="12">
-        <v>47</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AF59" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
       <c r="AI59" s="12">
-        <v>10</v>
-      </c>
-      <c r="AJ59" s="12">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="12"/>
     </row>
     <row r="60" spans="1:39" ht="28" customHeight="1">
       <c r="A60" s="20">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="C60" s="24">
+        <v>2</v>
+      </c>
+      <c r="D60" s="24">
+        <v>2</v>
+      </c>
+      <c r="E60" s="24">
+        <v>2</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
-      <c r="I60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>19</v>
+      <c r="I60" s="12">
+        <v>2</v>
+      </c>
+      <c r="J60" s="12">
+        <v>2</v>
+      </c>
+      <c r="K60" s="12">
+        <v>2</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M60" s="21">
-        <v>8</v>
-      </c>
+      <c r="M60" s="21"/>
       <c r="N60" s="21"/>
-      <c r="O60" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P60" s="12" t="s">
-        <v>30</v>
+      <c r="O60" s="12">
+        <v>6</v>
+      </c>
+      <c r="P60" s="12">
+        <v>4</v>
       </c>
       <c r="Q60" s="12">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S60" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="W60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="X60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF60" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="12"/>
-      <c r="AI60" s="12">
+        <v>57</v>
+      </c>
+      <c r="S60" s="12">
         <v>2</v>
       </c>
+      <c r="T60" s="21">
+        <v>8</v>
+      </c>
+      <c r="U60" s="21">
+        <v>8</v>
+      </c>
+      <c r="V60" s="12">
+        <v>4</v>
+      </c>
+      <c r="W60" s="12">
+        <v>4</v>
+      </c>
+      <c r="X60" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF60" s="12">
+        <v>4</v>
+      </c>
+      <c r="AG60" s="12">
+        <v>16</v>
+      </c>
+      <c r="AH60" s="12">
+        <v>64</v>
+      </c>
+      <c r="AI60" s="12"/>
       <c r="AJ60" s="12"/>
     </row>
     <row r="61" spans="1:39" ht="28" customHeight="1">
       <c r="A61" s="20">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="24">
-        <v>2</v>
-      </c>
-      <c r="D61" s="24">
-        <v>2</v>
-      </c>
-      <c r="E61" s="24">
-        <v>2</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="12">
-        <v>2</v>
-      </c>
-      <c r="J61" s="12">
-        <v>2</v>
-      </c>
-      <c r="K61" s="12">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="24">
+        <v>4</v>
+      </c>
+      <c r="J61" s="24">
+        <v>4</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="L61" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="21"/>
+      <c r="M61" s="21">
+        <v>8</v>
+      </c>
       <c r="N61" s="21"/>
-      <c r="O61" s="12">
-        <v>6</v>
-      </c>
-      <c r="P61" s="12">
-        <v>4</v>
+      <c r="O61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="Q61" s="12">
-        <v>-4</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="R61" s="12">
+        <v>4</v>
       </c>
       <c r="S61" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T61" s="21">
-        <v>8</v>
-      </c>
-      <c r="U61" s="21">
-        <v>8</v>
-      </c>
-      <c r="V61" s="12">
-        <v>4</v>
-      </c>
-      <c r="W61" s="12">
-        <v>4</v>
-      </c>
-      <c r="X61" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y61" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z61" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA61" s="21">
         <v>12</v>
       </c>
-      <c r="AB61" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC61" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD61" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE61" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF61" s="12">
-        <v>4</v>
+      <c r="U61" s="21"/>
+      <c r="V61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA61" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD61" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE61" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF61" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="AG61" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AH61" s="12">
-        <v>64</v>
-      </c>
-      <c r="AI61" s="12"/>
-      <c r="AJ61" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="AI61" s="12">
+        <v>14</v>
+      </c>
+      <c r="AJ61" s="12">
+        <v>13</v>
+      </c>
     </row>
     <row r="62" spans="1:39" ht="28" customHeight="1">
       <c r="A62" s="20">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="24">
-        <v>4</v>
-      </c>
-      <c r="J62" s="24">
-        <v>4</v>
+        <v>89</v>
+      </c>
+      <c r="C62" s="24">
+        <v>4</v>
+      </c>
+      <c r="D62" s="12">
+        <v>4</v>
+      </c>
+      <c r="E62" s="12">
+        <v>4</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M62" s="21">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="N62" s="21"/>
       <c r="O62" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q62" s="12">
-        <v>4</v>
-      </c>
-      <c r="R62" s="12">
-        <v>4</v>
-      </c>
-      <c r="S62" s="12">
-        <v>4</v>
-      </c>
-      <c r="T62" s="21">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21">
         <v>12</v>
       </c>
-      <c r="U62" s="21"/>
-      <c r="V62" s="12" t="s">
-        <v>28</v>
+      <c r="V62" s="12">
+        <v>4</v>
       </c>
       <c r="W62" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="X62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA62" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF62" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="X62" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF62" s="12">
+        <v>4</v>
       </c>
       <c r="AG62" s="12">
         <v>32</v>
       </c>
       <c r="AH62" s="12">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AI62" s="12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ62" s="12">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:39" ht="28" customHeight="1">
       <c r="A63" s="20">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" s="24">
         <v>4</v>
@@ -7086,45 +7109,45 @@
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M63" s="21" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M63" s="21"/>
       <c r="N63" s="21"/>
       <c r="O63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T63" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="P63" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>4</v>
+      </c>
+      <c r="R63" s="12">
+        <v>4</v>
+      </c>
+      <c r="S63" s="12">
+        <v>4</v>
+      </c>
+      <c r="T63" s="21">
+        <v>8</v>
+      </c>
       <c r="U63" s="21">
-        <v>12</v>
-      </c>
-      <c r="V63" s="12">
-        <v>4</v>
-      </c>
-      <c r="W63" s="12" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="W63" s="12">
+        <v>4</v>
       </c>
       <c r="X63" s="12">
         <v>4</v>
@@ -7147,284 +7170,284 @@
       <c r="AD63" s="12">
         <v>4</v>
       </c>
-      <c r="AE63" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF63" s="12">
-        <v>4</v>
+      <c r="AE63" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF63" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="AG63" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH63" s="12">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AI63" s="12">
+        <v>6</v>
+      </c>
+      <c r="AJ63" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" ht="19.5" customHeight="1">
+      <c r="A64" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
+      <c r="AJ64" s="36"/>
+    </row>
+    <row r="65" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A65" s="37"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="18">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15">
+        <v>2</v>
+      </c>
+      <c r="E65" s="15">
+        <v>3</v>
+      </c>
+      <c r="F65" s="14">
+        <v>4</v>
+      </c>
+      <c r="G65" s="14">
+        <v>5</v>
+      </c>
+      <c r="H65" s="14">
+        <v>6</v>
+      </c>
+      <c r="I65" s="15">
+        <v>7</v>
+      </c>
+      <c r="J65" s="15">
+        <v>8</v>
+      </c>
+      <c r="K65" s="15">
+        <v>9</v>
+      </c>
+      <c r="L65" s="15">
         <v>10</v>
       </c>
-      <c r="AJ63" s="12">
-        <v>6</v>
-      </c>
+      <c r="M65" s="14">
+        <v>11</v>
+      </c>
+      <c r="N65" s="14">
+        <v>12</v>
+      </c>
+      <c r="O65" s="15">
+        <v>13</v>
+      </c>
+      <c r="P65" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q65" s="15">
+        <v>15</v>
+      </c>
+      <c r="R65" s="15">
+        <v>16</v>
+      </c>
+      <c r="S65" s="15">
+        <v>17</v>
+      </c>
+      <c r="T65" s="14">
+        <v>18</v>
+      </c>
+      <c r="U65" s="14">
+        <v>19</v>
+      </c>
+      <c r="V65" s="15">
+        <v>20</v>
+      </c>
+      <c r="W65" s="15">
+        <v>21</v>
+      </c>
+      <c r="X65" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y65" s="15">
+        <v>23</v>
+      </c>
+      <c r="Z65" s="15">
+        <v>24</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>25</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>26</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>27</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>28</v>
+      </c>
+      <c r="AE65" s="15">
+        <v>29</v>
+      </c>
+      <c r="AF65" s="15">
+        <v>30</v>
+      </c>
+      <c r="AG65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
     </row>
-    <row r="64" spans="1:39" ht="28" customHeight="1">
-      <c r="A64" s="20">
-        <v>56</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="24">
-        <v>4</v>
-      </c>
-      <c r="D64" s="12">
-        <v>4</v>
-      </c>
-      <c r="E64" s="12">
-        <v>4</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="12" t="s">
+    <row r="66" spans="1:39" ht="23.25" customHeight="1">
+      <c r="A66" s="20">
+        <v>57</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="12">
+        <v>4</v>
+      </c>
+      <c r="K66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="21">
+        <v>8</v>
+      </c>
+      <c r="N66" s="21"/>
+      <c r="O66" s="12">
+        <v>4</v>
+      </c>
+      <c r="P66" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>4</v>
+      </c>
+      <c r="R66" s="12">
+        <v>4</v>
+      </c>
+      <c r="S66" s="12">
+        <v>4</v>
+      </c>
+      <c r="T66" s="21">
+        <v>8</v>
+      </c>
+      <c r="U66" s="21"/>
+      <c r="V66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA66" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG66" s="12">
         <v>28</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P64" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="12">
-        <v>4</v>
-      </c>
-      <c r="R64" s="12">
-        <v>4</v>
-      </c>
-      <c r="S64" s="12">
-        <v>4</v>
-      </c>
-      <c r="T64" s="21">
-        <v>8</v>
-      </c>
-      <c r="U64" s="21">
-        <v>8</v>
-      </c>
-      <c r="V64" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="W64" s="12">
-        <v>4</v>
-      </c>
-      <c r="X64" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y64" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z64" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA64" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB64" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC64" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD64" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF64" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG64" s="12">
-        <v>28</v>
-      </c>
-      <c r="AH64" s="12">
-        <v>66</v>
-      </c>
-      <c r="AI64" s="12">
-        <v>6</v>
-      </c>
-      <c r="AJ64" s="12">
-        <v>3</v>
+      <c r="AH66" s="12">
+        <v>64</v>
+      </c>
+      <c r="AI66" s="12">
+        <v>11</v>
+      </c>
+      <c r="AJ66" s="12">
+        <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-    </row>
-    <row r="66" spans="1:39" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="18">
-        <v>1</v>
-      </c>
-      <c r="D66" s="15">
-        <v>2</v>
-      </c>
-      <c r="E66" s="15">
-        <v>3</v>
-      </c>
-      <c r="F66" s="14">
-        <v>4</v>
-      </c>
-      <c r="G66" s="14">
-        <v>5</v>
-      </c>
-      <c r="H66" s="14">
-        <v>6</v>
-      </c>
-      <c r="I66" s="15">
-        <v>7</v>
-      </c>
-      <c r="J66" s="15">
-        <v>8</v>
-      </c>
-      <c r="K66" s="15">
-        <v>9</v>
-      </c>
-      <c r="L66" s="15">
-        <v>10</v>
-      </c>
-      <c r="M66" s="14">
-        <v>11</v>
-      </c>
-      <c r="N66" s="14">
-        <v>12</v>
-      </c>
-      <c r="O66" s="15">
-        <v>13</v>
-      </c>
-      <c r="P66" s="15">
-        <v>14</v>
-      </c>
-      <c r="Q66" s="15">
-        <v>15</v>
-      </c>
-      <c r="R66" s="15">
-        <v>16</v>
-      </c>
-      <c r="S66" s="15">
-        <v>17</v>
-      </c>
-      <c r="T66" s="14">
-        <v>18</v>
-      </c>
-      <c r="U66" s="14">
-        <v>19</v>
-      </c>
-      <c r="V66" s="15">
-        <v>20</v>
-      </c>
-      <c r="W66" s="15">
-        <v>21</v>
-      </c>
-      <c r="X66" s="15">
-        <v>22</v>
-      </c>
-      <c r="Y66" s="15">
-        <v>23</v>
-      </c>
-      <c r="Z66" s="15">
-        <v>24</v>
-      </c>
-      <c r="AA66" s="14">
-        <v>25</v>
-      </c>
-      <c r="AB66" s="15">
-        <v>26</v>
-      </c>
-      <c r="AC66" s="15">
-        <v>27</v>
-      </c>
-      <c r="AD66" s="15">
-        <v>28</v>
-      </c>
-      <c r="AE66" s="15">
-        <v>29</v>
-      </c>
-      <c r="AF66" s="15">
-        <v>30</v>
-      </c>
-      <c r="AG66" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH66" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI66" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK66" s="8"/>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="9"/>
-    </row>
-    <row r="67" spans="1:39" ht="23.25" customHeight="1">
+    <row r="67" spans="1:39" ht="28" customHeight="1">
       <c r="A67" s="20">
-        <v>57</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>94</v>
+        <v>58</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>92</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>19</v>
@@ -7435,14 +7458,14 @@
       <c r="E67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="21"/>
       <c r="I67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="12">
-        <v>4</v>
+      <c r="J67" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>19</v>
@@ -7450,12 +7473,10 @@
       <c r="L67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M67" s="21">
-        <v>8</v>
-      </c>
+      <c r="M67" s="21"/>
       <c r="N67" s="21"/>
-      <c r="O67" s="12">
-        <v>4</v>
+      <c r="O67" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="P67" s="12">
         <v>4</v>
@@ -7472,245 +7493,249 @@
       <c r="T67" s="21">
         <v>8</v>
       </c>
-      <c r="U67" s="21"/>
-      <c r="V67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="X67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA67" s="21" t="s">
-        <v>36</v>
+      <c r="U67" s="21">
+        <v>8</v>
+      </c>
+      <c r="V67" s="12">
+        <v>4</v>
+      </c>
+      <c r="W67" s="12">
+        <v>4</v>
+      </c>
+      <c r="X67" s="12">
+        <v>4</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z67" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA67" s="21">
+        <v>12</v>
       </c>
       <c r="AB67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF67" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD67" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE67" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF67" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="AG67" s="12">
         <v>28</v>
       </c>
       <c r="AH67" s="12">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AI67" s="12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AJ67" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="28" customHeight="1">
       <c r="A68" s="20">
-        <v>58</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>95</v>
+        <v>59</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>6</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
       <c r="H68" s="21"/>
       <c r="I68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M68" s="21"/>
       <c r="N68" s="21"/>
       <c r="O68" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P68" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q68" s="12">
-        <v>4</v>
-      </c>
-      <c r="R68" s="12">
-        <v>4</v>
-      </c>
-      <c r="S68" s="12">
-        <v>4</v>
-      </c>
-      <c r="T68" s="21">
-        <v>8</v>
-      </c>
-      <c r="U68" s="21">
-        <v>8</v>
-      </c>
-      <c r="V68" s="12">
-        <v>4</v>
-      </c>
-      <c r="W68" s="12">
-        <v>4</v>
-      </c>
-      <c r="X68" s="12">
-        <v>4</v>
-      </c>
-      <c r="Y68" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z68" s="12">
-        <v>4</v>
-      </c>
-      <c r="AA68" s="21">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA68" s="21"/>
       <c r="AB68" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC68" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD68" s="12">
-        <v>5</v>
-      </c>
-      <c r="AE68" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF68" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG68" s="12">
-        <v>28</v>
-      </c>
-      <c r="AH68" s="12">
-        <v>57</v>
-      </c>
-      <c r="AI68" s="12">
-        <v>3</v>
-      </c>
-      <c r="AJ68" s="12">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AC68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
     </row>
     <row r="69" spans="1:39" ht="28" customHeight="1">
       <c r="A69" s="20">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="21"/>
       <c r="I69" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M69" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="L69" s="12">
+        <v>4</v>
+      </c>
+      <c r="M69" s="21">
+        <v>8</v>
+      </c>
       <c r="N69" s="21"/>
       <c r="O69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="R69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="12" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="P69" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>4</v>
+      </c>
+      <c r="R69" s="12">
+        <v>4</v>
+      </c>
+      <c r="S69" s="12">
+        <v>4</v>
+      </c>
+      <c r="T69" s="21">
+        <v>8</v>
+      </c>
+      <c r="U69" s="21">
+        <v>8</v>
+      </c>
+      <c r="V69" s="12">
+        <v>4</v>
       </c>
       <c r="W69" s="12" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="X69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF69" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12"/>
-      <c r="AJ69" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="Y69" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z69" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA69" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB69" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC69" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD69" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE69" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF69" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG69" s="12">
+        <v>36</v>
+      </c>
+      <c r="AH69" s="12">
+        <v>64</v>
+      </c>
+      <c r="AI69" s="12">
+        <v>5</v>
+      </c>
+      <c r="AJ69" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:39" ht="28" customHeight="1">
       <c r="A70" s="20">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>19</v>
@@ -7723,89 +7748,89 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="21"/>
+      <c r="H70" s="23">
+        <v>4</v>
+      </c>
       <c r="I70" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>19</v>
+        <v>96</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L70" s="12">
-        <v>4</v>
-      </c>
-      <c r="M70" s="21">
-        <v>8</v>
-      </c>
-      <c r="N70" s="21"/>
-      <c r="O70" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P70" s="12">
-        <v>4</v>
+      <c r="L70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="23">
+        <v>4</v>
+      </c>
+      <c r="N70" s="23"/>
+      <c r="O70" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="Q70" s="12">
-        <v>4</v>
-      </c>
-      <c r="R70" s="12">
-        <v>4</v>
-      </c>
-      <c r="S70" s="12">
-        <v>4</v>
-      </c>
-      <c r="T70" s="21">
+        <v>1</v>
+      </c>
+      <c r="R70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T70" s="23">
         <v>8</v>
       </c>
       <c r="U70" s="21">
         <v>8</v>
       </c>
-      <c r="V70" s="12">
-        <v>4</v>
-      </c>
-      <c r="W70" s="12" t="s">
-        <v>96</v>
+      <c r="V70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W70" s="12">
+        <v>1</v>
       </c>
       <c r="X70" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y70" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z70" s="12">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="Y70" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z70" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AA70" s="21">
-        <v>12</v>
-      </c>
-      <c r="AB70" s="12">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="AB70" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="AC70" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD70" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE70" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF70" s="24" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="AE70" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="12">
+        <v>1</v>
       </c>
       <c r="AG70" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AH70" s="12">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="AI70" s="12">
-        <v>5</v>
-      </c>
-      <c r="AJ70" s="12">
         <v>2</v>
       </c>
+      <c r="AJ70" s="12"/>
     </row>
     <row r="71" spans="1:39" ht="28" customHeight="1">
       <c r="A71" s="20">
@@ -7827,19 +7852,19 @@
       <c r="G71" s="21"/>
       <c r="H71" s="21"/>
       <c r="I71" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="L71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M71" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M71" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="N71" s="21"/>
       <c r="O71" s="12">
@@ -7864,37 +7889,37 @@
         <v>8</v>
       </c>
       <c r="V71" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="W71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA71" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF71" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="X71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA71" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE71" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF71" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="AG71" s="12">
         <v>40</v>
@@ -7914,7 +7939,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>19</v>
@@ -7995,10 +8020,10 @@
         <v>5</v>
       </c>
       <c r="AE72" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF72" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG72" s="12">
         <v>48</v>
@@ -8051,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P73" s="12">
         <v>2</v>
@@ -8099,10 +8124,10 @@
         <v>5</v>
       </c>
       <c r="AE73" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF73" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AG73" s="12">
         <v>44</v>
@@ -8125,7 +8150,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>19</v>
@@ -8221,7 +8246,7 @@
         <v>66</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="12"/>
@@ -8250,16 +8275,16 @@
       <c r="AA75" s="21"/>
       <c r="AB75" s="12"/>
       <c r="AC75" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD75" s="12">
         <v>5</v>
       </c>
       <c r="AE75" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF75" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG75" s="12"/>
       <c r="AH75" s="12">
@@ -8277,13 +8302,13 @@
     <mergeCell ref="B1:AJ1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:AJ2"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:AJ65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:AJ64"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:AJ24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:AJ23"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:AJ44"/>
